--- a/shop-main/Dalaila Botique/2021/dalaila2021.xlsx
+++ b/shop-main/Dalaila Botique/2021/dalaila2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pasal\Dalaila Botique\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shop-main\shop-main\Dalaila Botique\2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066DCBD8-3A41-47B1-BA73-F95CC4F6C0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8E20C8-4BA2-4391-A1D8-1B77AA4435AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,7 @@
     <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
     <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -89,7 +81,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>user:</t>
         </r>
@@ -98,7 +90,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 4748+955</t>
@@ -158,7 +150,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>user:</t>
         </r>
@@ -167,7 +159,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 845+5670
@@ -1359,7 +1351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1394,19 +1386,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1472,6 +1451,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,15 +1468,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1834,50 +1813,50 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1888,39 +1867,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1931,42 +1910,42 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1977,7 +1956,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1988,27 +1967,27 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2019,67 +1998,67 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -2094,20 +2073,20 @@
         <v>9630</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="6">
         <f>SUM(D39:E39)</f>
         <v>9630</v>
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E42" s="5"/>
     </row>
   </sheetData>
@@ -2128,45 +2107,45 @@
   <dimension ref="B1:F40"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -2177,162 +2156,168 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>164</v>
+      </c>
+      <c r="F5">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2344,19 +2329,19 @@
       </c>
       <c r="F38" s="1">
         <f>SUM(F5:F36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="6">
         <f>SUM(E38:F38)</f>
-        <v>0</v>
+        <v>2990</v>
       </c>
     </row>
   </sheetData>
@@ -2381,40 +2366,40 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="6" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -2425,157 +2410,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2590,13 +2575,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
+    <row r="40" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="6">
         <f>SUM(E38:F38)</f>
         <v>0</v>
@@ -2620,49 +2605,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="10" t="s">
         <v>4</v>
       </c>
@@ -2670,162 +2655,177 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>165</v>
+      </c>
+      <c r="F6">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>166</v>
+      </c>
+      <c r="F26">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2837,19 +2837,19 @@
       </c>
       <c r="F38" s="1">
         <f>SUM(F5:F36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
+        <v>5590</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="6">
         <f>SUM(E38:F38)</f>
-        <v>0</v>
+        <v>5590</v>
       </c>
     </row>
   </sheetData>
@@ -2873,7 +2873,7 @@
       <selection activeCell="E10" sqref="E10:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -2888,7 +2888,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2900,7 +2900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2910,47 +2910,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2961,27 +2961,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2992,122 +2992,122 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -3122,13 +3122,13 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="6">
         <f>SUM(D38:E38)</f>
         <v>1125</v>
@@ -3151,47 +3151,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3202,12 +3202,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3218,61 +3218,61 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3283,32 +3283,32 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -3319,72 +3319,72 @@
         <v>990</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -3399,13 +3399,13 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="6">
         <f>SUM(D38:E38)</f>
         <v>4350</v>
@@ -3427,47 +3427,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3478,12 +3478,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -3494,20 +3494,20 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -3517,44 +3517,44 @@
       <c r="E9">
         <v>695</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -3565,97 +3565,109 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>161</v>
+      </c>
+      <c r="E20">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>162</v>
+      </c>
+      <c r="E30">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -3667,19 +3679,19 @@
       </c>
       <c r="E38" s="1">
         <f>SUM(E5:E36)</f>
-        <v>3055</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="6">
         <f>SUM(D38:E38)</f>
-        <v>3055</v>
+        <v>5095</v>
       </c>
     </row>
   </sheetData>
@@ -3698,47 +3710,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3749,162 +3761,162 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -3919,13 +3931,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="6">
         <f>SUM(D38:E38)</f>
         <v>0</v>
@@ -3947,47 +3959,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -3998,157 +4010,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -4163,13 +4175,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="6">
         <f>SUM(D38:E38)</f>
         <v>0</v>
@@ -4192,45 +4204,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -4241,164 +4253,164 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>207</v>
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>212</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -4413,13 +4425,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="6">
         <f>SUM(D38:E38)</f>
         <v>0</v>
@@ -4446,51 +4458,51 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:12" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -4502,67 +4514,67 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>234</v>
       </c>
@@ -4570,97 +4582,97 @@
         <v>376</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:12" ht="21" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
@@ -4678,19 +4690,19 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="40" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
+    <row r="40" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="6">
         <f>SUM(E38:F38)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
       <c r="L40" s="6"/>
     </row>
   </sheetData>
@@ -4716,44 +4728,44 @@
   <dimension ref="B1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:6" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>68</v>
       </c>
@@ -4764,127 +4776,133 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>163</v>
+      </c>
+      <c r="F12">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>277</v>
       </c>
@@ -4892,32 +4910,32 @@
         <v>376</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
@@ -4929,19 +4947,19 @@
       </c>
       <c r="F38" s="1">
         <f>SUM(F5:F36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="12" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="6">
         <f>SUM(E38:F38)</f>
-        <v>0</v>
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
